--- a/AnnualSRSSummaryReport/ReturnA/ByAgency/FiscalYearData/SRS_AnnualSummary_ReturnA.xlsx
+++ b/AnnualSRSSummaryReport/ReturnA/ByAgency/FiscalYearData/SRS_AnnualSummary_ReturnA.xlsx
@@ -376,7 +376,7 @@
     <row r="3" ht="7.5" customHeight="1">
       <c s="1" t="inlineStr" r="M3">
         <is>
-          <t xml:space="preserve">Printed On: 10/22/2025</t>
+          <t xml:space="preserve">Printed On: 10/23/2025</t>
         </is>
       </c>
     </row>
